--- a/JS.xlsx
+++ b/JS.xlsx
@@ -17,7 +17,7 @@
     <t xml:space="preserve">Semaine : </t>
   </si>
   <si>
-    <t>jeudi</t>
+    <t>lundi</t>
   </si>
   <si>
     <t>Télécoms (KINX6AC1)</t>
@@ -32,13 +32,13 @@
     <t>TYPE_AUTRE</t>
   </si>
   <si>
-    <t>vendredi</t>
+    <t>mardi</t>
   </si>
   <si>
     <t>13:30</t>
   </si>
   <si>
-    <t>samedi</t>
+    <t>mercredi</t>
   </si>
   <si>
     <t>10:0</t>
@@ -104,7 +104,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n" s="1">
-        <v>44931.0</v>
+        <v>46027.0</v>
       </c>
       <c r="B2" t="s" s="0">
         <v>1</v>
@@ -141,7 +141,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n" s="1">
-        <v>44939.0</v>
+        <v>46035.0</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>6</v>
@@ -178,7 +178,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n" s="1">
-        <v>44947.0</v>
+        <v>46043.0</v>
       </c>
       <c r="B8" t="s" s="0">
         <v>8</v>
